--- a/resultados/aleatoriedad-inicio/aleatoriedad-localvisita-regular.xlsx
+++ b/resultados/aleatoriedad-inicio/aleatoriedad-localvisita-regular.xlsx
@@ -38,6 +38,9 @@
     <t>All</t>
   </si>
   <si>
+    <t>Frac. Fácil LV h1 p3 c3</t>
+  </si>
+  <si>
     <t>Frac. Fácil LV h1 p4 c3</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t>Frac. Fácil LV h1 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h1 p7 c3</t>
+    <t>Frac. Fácil LV h1 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil LV h1 p4 c4</t>
@@ -59,7 +62,7 @@
     <t>Frac. Fácil LV h1 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h1 p7 c4</t>
+    <t>Frac. Fácil LV h1 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil LV h1 p4 c5</t>
@@ -71,7 +74,7 @@
     <t>Frac. Fácil LV h1 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h1 p7 c5</t>
+    <t>Frac. Fácil LV h2 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil LV h2 p4 c3</t>
@@ -83,7 +86,7 @@
     <t>Frac. Fácil LV h2 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h2 p7 c3</t>
+    <t>Frac. Fácil LV h2 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil LV h2 p4 c4</t>
@@ -95,7 +98,7 @@
     <t>Frac. Fácil LV h2 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h2 p7 c4</t>
+    <t>Frac. Fácil LV h2 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil LV h2 p4 c5</t>
@@ -107,7 +110,7 @@
     <t>Frac. Fácil LV h2 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h2 p7 c5</t>
+    <t>Frac. Fácil LV h3 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil LV h3 p4 c3</t>
@@ -119,7 +122,7 @@
     <t>Frac. Fácil LV h3 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h3 p7 c3</t>
+    <t>Frac. Fácil LV h3 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil LV h3 p4 c4</t>
@@ -131,7 +134,7 @@
     <t>Frac. Fácil LV h3 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h3 p7 c4</t>
+    <t>Frac. Fácil LV h3 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil LV h3 p4 c5</t>
@@ -143,7 +146,7 @@
     <t>Frac. Fácil LV h3 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h3 p7 c5</t>
+    <t>Frac. Fácil LV h4 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil LV h4 p4 c3</t>
@@ -155,7 +158,7 @@
     <t>Frac. Fácil LV h4 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h4 p7 c3</t>
+    <t>Frac. Fácil LV h4 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil LV h4 p4 c4</t>
@@ -167,7 +170,7 @@
     <t>Frac. Fácil LV h4 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h4 p7 c4</t>
+    <t>Frac. Fácil LV h4 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil LV h4 p4 c5</t>
@@ -179,7 +182,7 @@
     <t>Frac. Fácil LV h4 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h4 p7 c5</t>
+    <t>Frac. Fácil LV h5 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil LV h5 p4 c3</t>
@@ -191,7 +194,7 @@
     <t>Frac. Fácil LV h5 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h5 p7 c3</t>
+    <t>Frac. Fácil LV h5 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil LV h5 p4 c4</t>
@@ -203,7 +206,7 @@
     <t>Frac. Fácil LV h5 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h5 p7 c4</t>
+    <t>Frac. Fácil LV h5 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil LV h5 p4 c5</t>
@@ -215,7 +218,7 @@
     <t>Frac. Fácil LV h5 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil LV h5 p7 c5</t>
+    <t>0.366 (N = 109)</t>
   </si>
   <si>
     <t>0.199 (N = 109)</t>
@@ -227,7 +230,7 @@
     <t>0.478 (N = 109)</t>
   </si>
   <si>
-    <t>0.341 (N = 109)</t>
+    <t>0.156 (N = 75)</t>
   </si>
   <si>
     <t>0.049 (N = 75)</t>
@@ -239,7 +242,7 @@
     <t>0.032 (N = 75)</t>
   </si>
   <si>
-    <t>0.002 (N = 75)</t>
+    <t>0.59 (N = 51)</t>
   </si>
   <si>
     <t>0.415 (N = 51)</t>
@@ -251,7 +254,7 @@
     <t>0.642 (N = 51)</t>
   </si>
   <si>
-    <t>0.165 (N = 51)</t>
+    <t>0.907 (N = 136)</t>
   </si>
   <si>
     <t>0.856 (N = 136)</t>
@@ -263,7 +266,7 @@
     <t>0.521 (N = 136)</t>
   </si>
   <si>
-    <t>0.407 (N = 136)</t>
+    <t>0.593 (N = 93)</t>
   </si>
   <si>
     <t>0.466 (N = 93)</t>
@@ -275,7 +278,7 @@
     <t>0.761 (N = 93)</t>
   </si>
   <si>
-    <t>0.511 (N = 93)</t>
+    <t>0.352 (N = 58)</t>
   </si>
   <si>
     <t>0.383 (N = 58)</t>
@@ -287,7 +290,7 @@
     <t>0.764 (N = 58)</t>
   </si>
   <si>
-    <t>0.652 (N = 58)</t>
+    <t>0.474 (N = 134)</t>
   </si>
   <si>
     <t>0.224 (N = 134)</t>
@@ -299,7 +302,7 @@
     <t>0.499 (N = 134)</t>
   </si>
   <si>
-    <t>0.507 (N = 134)</t>
+    <t>0.071 (N = 98)</t>
   </si>
   <si>
     <t>0.193 (N = 98)</t>
@@ -311,7 +314,7 @@
     <t>0.519 (N = 98)</t>
   </si>
   <si>
-    <t>0.642 (N = 98)</t>
+    <t>0.064 (N = 64)</t>
   </si>
   <si>
     <t>0.229 (N = 64)</t>
@@ -323,7 +326,7 @@
     <t>0.509 (N = 64)</t>
   </si>
   <si>
-    <t>0.661 (N = 64)</t>
+    <t>0.313 (N = 139)</t>
   </si>
   <si>
     <t>0.333 (N = 139)</t>
@@ -335,7 +338,7 @@
     <t>0.692 (N = 139)</t>
   </si>
   <si>
-    <t>0.736 (N = 139)</t>
+    <t>0.395 (N = 102)</t>
   </si>
   <si>
     <t>0.699 (N = 102)</t>
@@ -347,7 +350,7 @@
     <t>0.86 (N = 102)</t>
   </si>
   <si>
-    <t>0.773 (N = 102)</t>
+    <t>0.542 (N = 62)</t>
   </si>
   <si>
     <t>0.783 (N = 62)</t>
@@ -359,7 +362,7 @@
     <t>0.822 (N = 62)</t>
   </si>
   <si>
-    <t>0.93 (N = 62)</t>
+    <t>0.622 (N = 141)</t>
   </si>
   <si>
     <t>0.556 (N = 141)</t>
@@ -371,7 +374,7 @@
     <t>0.621 (N = 141)</t>
   </si>
   <si>
-    <t>0.726 (N = 141)</t>
+    <t>0.587 (N = 101)</t>
   </si>
   <si>
     <t>0.743 (N = 101)</t>
@@ -383,7 +386,7 @@
     <t>0.831 (N = 101)</t>
   </si>
   <si>
-    <t>0.985 (N = 101)</t>
+    <t>0.526 (N = 66)</t>
   </si>
   <si>
     <t>0.401 (N = 66)</t>
@@ -395,7 +398,7 @@
     <t>0.334 (N = 66)</t>
   </si>
   <si>
-    <t>0.409 (N = 66)</t>
+    <t>0.604 (N = 140)</t>
   </si>
   <si>
     <t>0.587 (N = 140)</t>
@@ -404,7 +407,7 @@
     <t>0.328 (N = 140)</t>
   </si>
   <si>
-    <t>0.366 (N = 140)</t>
+    <t>0.261 (N = 95)</t>
   </si>
   <si>
     <t>0.1 (N = 95)</t>
@@ -416,7 +419,7 @@
     <t>0.049 (N = 95)</t>
   </si>
   <si>
-    <t>0.051 (N = 95)</t>
+    <t>0.189 (N = 62)</t>
   </si>
   <si>
     <t>0.099 (N = 62)</t>
@@ -428,7 +431,7 @@
     <t>0.252 (N = 62)</t>
   </si>
   <si>
-    <t>0.165 (N = 62)</t>
+    <t>0.33 (N = 158)</t>
   </si>
   <si>
     <t>0.721 (N = 158)</t>
@@ -440,7 +443,7 @@
     <t>0.339 (N = 158)</t>
   </si>
   <si>
-    <t>0.384 (N = 158)</t>
+    <t>0.426 (N = 115)</t>
   </si>
   <si>
     <t>0.295 (N = 115)</t>
@@ -452,7 +455,7 @@
     <t>0.48 (N = 115)</t>
   </si>
   <si>
-    <t>0.346 (N = 115)</t>
+    <t>0.255 (N = 76)</t>
   </si>
   <si>
     <t>0.402 (N = 76)</t>
@@ -464,7 +467,7 @@
     <t>0.674 (N = 76)</t>
   </si>
   <si>
-    <t>0.513 (N = 76)</t>
+    <t>0.495 (N = 171)</t>
   </si>
   <si>
     <t>0.369 (N = 171)</t>
@@ -476,7 +479,7 @@
     <t>0.279 (N = 171)</t>
   </si>
   <si>
-    <t>0.024 (N = 171)</t>
+    <t>0.783 (N = 124)</t>
   </si>
   <si>
     <t>0.824 (N = 124)</t>
@@ -488,7 +491,7 @@
     <t>0.778 (N = 124)</t>
   </si>
   <si>
-    <t>0.575 (N = 124)</t>
+    <t>0.838 (N = 88)</t>
   </si>
   <si>
     <t>0.857 (N = 88)</t>
@@ -500,7 +503,7 @@
     <t>0.646 (N = 88)</t>
   </si>
   <si>
-    <t>0.207 (N = 88)</t>
+    <t>0.324 (N = 180)</t>
   </si>
   <si>
     <t>0.289 (N = 180)</t>
@@ -512,7 +515,7 @@
     <t>0.034 (N = 180)</t>
   </si>
   <si>
-    <t>0.08 (N = 180)</t>
+    <t>0.756 (N = 139)</t>
   </si>
   <si>
     <t>0.401 (N = 139)</t>
@@ -524,7 +527,7 @@
     <t>0.106 (N = 139)</t>
   </si>
   <si>
-    <t>0.374 (N = 139)</t>
+    <t>0.727 (N = 95)</t>
   </si>
   <si>
     <t>0.814 (N = 95)</t>
@@ -536,7 +539,7 @@
     <t>0.259 (N = 95)</t>
   </si>
   <si>
-    <t>0.12 (N = 95)</t>
+    <t>0.9 (N = 177)</t>
   </si>
   <si>
     <t>0.668 (N = 177)</t>
@@ -548,7 +551,7 @@
     <t>0.313 (N = 177)</t>
   </si>
   <si>
-    <t>0.248 (N = 177)</t>
+    <t>0.534 (N = 136)</t>
   </si>
   <si>
     <t>0.501 (N = 136)</t>
@@ -560,7 +563,7 @@
     <t>0.118 (N = 136)</t>
   </si>
   <si>
-    <t>0.186 (N = 136)</t>
+    <t>0.378 (N = 102)</t>
   </si>
   <si>
     <t>0.541 (N = 102)</t>
@@ -572,7 +575,7 @@
     <t>0.178 (N = 102)</t>
   </si>
   <si>
-    <t>0.124 (N = 102)</t>
+    <t>0.052 (N = 89)</t>
   </si>
   <si>
     <t>0.196 (N = 89)</t>
@@ -584,7 +587,7 @@
     <t>0.169 (N = 89)</t>
   </si>
   <si>
-    <t>0.222 (N = 89)</t>
+    <t>0.215 (N = 58)</t>
   </si>
   <si>
     <t>0.321 (N = 58)</t>
@@ -596,7 +599,7 @@
     <t>0.306 (N = 58)</t>
   </si>
   <si>
-    <t>0.271 (N = 58)</t>
+    <t>0.475 (N = 40)</t>
   </si>
   <si>
     <t>0.329 (N = 40)</t>
@@ -608,7 +611,7 @@
     <t>0.341 (N = 40)</t>
   </si>
   <si>
-    <t>0.328 (N = 40)</t>
+    <t>0.267 (N = 99)</t>
   </si>
   <si>
     <t>0.883 (N = 99)</t>
@@ -620,7 +623,7 @@
     <t>0.787 (N = 99)</t>
   </si>
   <si>
-    <t>0.267 (N = 99)</t>
+    <t>0.233 (N = 71)</t>
   </si>
   <si>
     <t>0.557 (N = 71)</t>
@@ -632,7 +635,7 @@
     <t>0.664 (N = 71)</t>
   </si>
   <si>
-    <t>0.185 (N = 71)</t>
+    <t>0.818 (N = 48)</t>
   </si>
   <si>
     <t>0.91 (N = 48)</t>
@@ -644,7 +647,7 @@
     <t>0.934 (N = 48)</t>
   </si>
   <si>
-    <t>0.441 (N = 48)</t>
+    <t>0.233 (N = 105)</t>
   </si>
   <si>
     <t>0.744 (N = 105)</t>
@@ -656,7 +659,7 @@
     <t>0.473 (N = 105)</t>
   </si>
   <si>
-    <t>0.032 (N = 105)</t>
+    <t>0.698 (N = 75)</t>
   </si>
   <si>
     <t>0.907 (N = 75)</t>
@@ -668,7 +671,7 @@
     <t>0.508 (N = 75)</t>
   </si>
   <si>
-    <t>0.018 (N = 75)</t>
+    <t>0.818 (N = 58)</t>
   </si>
   <si>
     <t>0.67 (N = 58)</t>
@@ -680,7 +683,7 @@
     <t>0.595 (N = 58)</t>
   </si>
   <si>
-    <t>0.08 (N = 58)</t>
+    <t>0.128 (N = 106)</t>
   </si>
   <si>
     <t>0.669 (N = 106)</t>
@@ -692,7 +695,7 @@
     <t>0.376 (N = 106)</t>
   </si>
   <si>
-    <t>0.089 (N = 106)</t>
+    <t>0.45 (N = 83)</t>
   </si>
   <si>
     <t>0.937 (N = 83)</t>
@@ -704,7 +707,7 @@
     <t>0.663 (N = 83)</t>
   </si>
   <si>
-    <t>0.433 (N = 83)</t>
+    <t>0.778 (N = 58)</t>
   </si>
   <si>
     <t>0.858 (N = 58)</t>
@@ -716,7 +719,7 @@
     <t>0.749 (N = 58)</t>
   </si>
   <si>
-    <t>0.579 (N = 58)</t>
+    <t>0.457 (N = 109)</t>
   </si>
   <si>
     <t>0.617 (N = 109)</t>
@@ -728,7 +731,7 @@
     <t>0.372 (N = 109)</t>
   </si>
   <si>
-    <t>0.233 (N = 109)</t>
+    <t>0.831 (N = 83)</t>
   </si>
   <si>
     <t>0.972 (N = 83)</t>
@@ -740,7 +743,7 @@
     <t>0.814 (N = 83)</t>
   </si>
   <si>
-    <t>0.599 (N = 83)</t>
+    <t>0.951 (N = 58)</t>
   </si>
   <si>
     <t>0.99 (N = 58)</t>
@@ -752,297 +755,297 @@
     <t>0.807 (N = 58)</t>
   </si>
   <si>
-    <t>0.412 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.479 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.315 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.417 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.774 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.843 (N = 165)</t>
+    <t>0.374 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.423 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.29 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.402 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.417 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.838 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.702 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.605 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.828 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.748 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.596 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.616 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.578 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.995 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.983 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.926 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.125 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.3 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.21 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.142 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.628 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.633 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.338 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.497 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.092 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.26 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.448 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.611 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.779 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.853 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.897 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.863 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.72 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.876 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.979 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.97 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.038 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.051 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.083 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.283 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.113 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.372 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.547 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.478 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.12 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.189 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.385 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.178 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.163 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.338 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.792 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.912 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.017 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.343 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.434 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.608 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.031 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.28 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.556 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.72 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.327 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.396 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.727 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.658 (N = 134)</t>
+  </si>
+  <si>
+    <t>0.643 (N = 88)</t>
+  </si>
+  <si>
+    <t>0.279 (N = 88)</t>
+  </si>
+  <si>
+    <t>0.507 (N = 88)</t>
+  </si>
+  <si>
+    <t>0.378 (N = 88)</t>
+  </si>
+  <si>
+    <t>0.612 (N = 56)</t>
+  </si>
+  <si>
+    <t>0.495 (N = 56)</t>
+  </si>
+  <si>
+    <t>0.445 (N = 56)</t>
+  </si>
+  <si>
+    <t>0.642 (N = 56)</t>
+  </si>
+  <si>
+    <t>0.54 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.362 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.3 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.499 (N = 151)</t>
+  </si>
+  <si>
+    <t>0.689 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.782 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.404 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.511 (N = 112)</t>
+  </si>
+  <si>
+    <t>0.811 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.974 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.694 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.746 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.913 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.512 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.179 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.266 (N = 159)</t>
+  </si>
+  <si>
+    <t>0.661 (N = 118)</t>
+  </si>
+  <si>
+    <t>0.633 (N = 118)</t>
+  </si>
+  <si>
+    <t>0.617 (N = 118)</t>
+  </si>
+  <si>
+    <t>0.743 (N = 118)</t>
+  </si>
+  <si>
+    <t>0.823 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.946 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.87 (N = 81)</t>
+  </si>
+  <si>
+    <t>0.958 (N = 81)</t>
   </si>
   <si>
     <t>0.716 (N = 165)</t>
   </si>
   <si>
-    <t>0.594 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.733 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.768 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.601 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.599 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.941 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.995 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.982 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.927 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.945 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.286 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.202 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.124 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.287 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.621 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.324 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.497 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.571 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.255 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.437 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.572 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.524 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.855 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.899 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.803 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.871 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.975 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.967 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.959 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.054 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.099 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.3 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.387 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.382 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.54 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.359 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.194 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.417 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.197 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.14 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.356 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.791 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.901 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.905 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.356 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.459 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.679 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.566 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.267 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.582 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.742 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.668 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.396 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.727 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.658 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 134)</t>
-  </si>
-  <si>
-    <t>0.279 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.507 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.624 (N = 88)</t>
-  </si>
-  <si>
-    <t>0.495 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.445 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.642 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.868 (N = 56)</t>
-  </si>
-  <si>
-    <t>0.362 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.3 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.499 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.37 (N = 151)</t>
-  </si>
-  <si>
-    <t>0.782 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.404 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.511 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.761 (N = 112)</t>
-  </si>
-  <si>
-    <t>0.974 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.694 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.746 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.664 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.512 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.179 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.266 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.234 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.633 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.617 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.743 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.567 (N = 118)</t>
-  </si>
-  <si>
-    <t>0.946 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.87 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.958 (N = 81)</t>
-  </si>
-  <si>
-    <t>0.813 (N = 81)</t>
-  </si>
-  <si>
     <t>0.637 (N = 165)</t>
   </si>
   <si>
@@ -1052,7 +1055,7 @@
     <t>0.097 (N = 165)</t>
   </si>
   <si>
-    <t>0.378 (N = 165)</t>
+    <t>0.572 (N = 122)</t>
   </si>
   <si>
     <t>0.697 (N = 122)</t>
@@ -1064,7 +1067,7 @@
     <t>0.785 (N = 122)</t>
   </si>
   <si>
-    <t>0.746 (N = 122)</t>
+    <t>0.938 (N = 80)</t>
   </si>
   <si>
     <t>0.972 (N = 80)</t>
@@ -1076,7 +1079,7 @@
     <t>0.995 (N = 80)</t>
   </si>
   <si>
-    <t>0.977 (N = 80)</t>
+    <t>0.781 (N = 169)</t>
   </si>
   <si>
     <t>0.746 (N = 169)</t>
@@ -1088,7 +1091,7 @@
     <t>0.472 (N = 169)</t>
   </si>
   <si>
-    <t>0.526 (N = 169)</t>
+    <t>0.858 (N = 124)</t>
   </si>
   <si>
     <t>0.854 (N = 124)</t>
@@ -1100,7 +1103,7 @@
     <t>0.719 (N = 124)</t>
   </si>
   <si>
-    <t>0.929 (N = 124)</t>
+    <t>0.216 (N = 89)</t>
   </si>
   <si>
     <t>0.785 (N = 89)</t>
@@ -1112,187 +1115,181 @@
     <t>0.764 (N = 89)</t>
   </si>
   <si>
-    <t>0.931 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.283 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.276 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.41 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.525 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.06 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.049 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.043 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.19 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.167 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.44 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.542 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.972 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.799 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.701 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.159 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.272 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.155 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.656 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.547 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.871 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.595 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.114 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.042 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.158 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.02 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.764 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.884 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.86 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.54 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.925 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.963 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.965 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.72 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.129 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.057 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.048 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.103 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.533 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.767 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.615 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.923 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.93 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.817 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.719 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.705 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.485 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.711 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.745 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.822 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.62 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.714 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.913 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.752 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.834 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.69 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.639 (N = 474)</t>
+    <t>0.211 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.25 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.259 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.398 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.206 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.06 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.063 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.051 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.561 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.186 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.171 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.452 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.555 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.972 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.805 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.702 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.126 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.166 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.067 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.288 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.544 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.665 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.552 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.871 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.237 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.116 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.044 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.168 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.616 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.765 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.883 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.859 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.85 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.928 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.966 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.058 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.127 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.052 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.045 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.199 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.529 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.75 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.584 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.737 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.921 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.805 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.718 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.696 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.488 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.721 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.324 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.817 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.603 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.678 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.156 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.76 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.824 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.678 (N = 472)</t>
+  </si>
+  <si>
+    <t>Frac. Difícil LV h1 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil LV h1 p4 c3</t>
@@ -1304,7 +1301,7 @@
     <t>Frac. Difícil LV h1 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h1 p7 c3</t>
+    <t>Frac. Difícil LV h1 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil LV h1 p4 c4</t>
@@ -1316,7 +1313,7 @@
     <t>Frac. Difícil LV h1 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h1 p7 c4</t>
+    <t>Frac. Difícil LV h1 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil LV h1 p4 c5</t>
@@ -1328,7 +1325,7 @@
     <t>Frac. Difícil LV h1 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h1 p7 c5</t>
+    <t>Frac. Difícil LV h2 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil LV h2 p4 c3</t>
@@ -1340,7 +1337,7 @@
     <t>Frac. Difícil LV h2 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h2 p7 c3</t>
+    <t>Frac. Difícil LV h2 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil LV h2 p4 c4</t>
@@ -1352,7 +1349,7 @@
     <t>Frac. Difícil LV h2 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h2 p7 c4</t>
+    <t>Frac. Difícil LV h2 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil LV h2 p4 c5</t>
@@ -1364,7 +1361,7 @@
     <t>Frac. Difícil LV h2 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h2 p7 c5</t>
+    <t>Frac. Difícil LV h3 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil LV h3 p4 c3</t>
@@ -1376,7 +1373,7 @@
     <t>Frac. Difícil LV h3 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h3 p7 c3</t>
+    <t>Frac. Difícil LV h3 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil LV h3 p4 c4</t>
@@ -1388,7 +1385,7 @@
     <t>Frac. Difícil LV h3 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h3 p7 c4</t>
+    <t>Frac. Difícil LV h3 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil LV h3 p4 c5</t>
@@ -1400,7 +1397,7 @@
     <t>Frac. Difícil LV h3 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h3 p7 c5</t>
+    <t>Frac. Difícil LV h4 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil LV h4 p4 c3</t>
@@ -1412,7 +1409,7 @@
     <t>Frac. Difícil LV h4 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h4 p7 c3</t>
+    <t>Frac. Difícil LV h4 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil LV h4 p4 c4</t>
@@ -1424,7 +1421,7 @@
     <t>Frac. Difícil LV h4 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h4 p7 c4</t>
+    <t>Frac. Difícil LV h4 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil LV h4 p4 c5</t>
@@ -1436,7 +1433,7 @@
     <t>Frac. Difícil LV h4 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h4 p7 c5</t>
+    <t>Frac. Difícil LV h5 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil LV h5 p4 c3</t>
@@ -1448,7 +1445,7 @@
     <t>Frac. Difícil LV h5 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h5 p7 c3</t>
+    <t>Frac. Difícil LV h5 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil LV h5 p4 c4</t>
@@ -1460,7 +1457,7 @@
     <t>Frac. Difícil LV h5 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h5 p7 c4</t>
+    <t>Frac. Difícil LV h5 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil LV h5 p4 c5</t>
@@ -1472,7 +1469,7 @@
     <t>Frac. Difícil LV h5 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil LV h5 p7 c5</t>
+    <t>0.194 (N = 109)</t>
   </si>
   <si>
     <t>0.275 (N = 109)</t>
@@ -1484,7 +1481,7 @@
     <t>0.938 (N = 109)</t>
   </si>
   <si>
-    <t>0.842 (N = 109)</t>
+    <t>0.354 (N = 75)</t>
   </si>
   <si>
     <t>0.848 (N = 75)</t>
@@ -1496,7 +1493,7 @@
     <t>0.898 (N = 75)</t>
   </si>
   <si>
-    <t>0.861 (N = 75)</t>
+    <t>0.671 (N = 51)</t>
   </si>
   <si>
     <t>0.801 (N = 51)</t>
@@ -1508,7 +1505,7 @@
     <t>0.998 (N = 51)</t>
   </si>
   <si>
-    <t>0.991 (N = 51)</t>
+    <t>0.347 (N = 136)</t>
   </si>
   <si>
     <t>0.804 (N = 136)</t>
@@ -1520,7 +1517,7 @@
     <t>0.394 (N = 136)</t>
   </si>
   <si>
-    <t>0.26 (N = 136)</t>
+    <t>0.025 (N = 93)</t>
   </si>
   <si>
     <t>0.008 (N = 93)</t>
@@ -1532,7 +1529,7 @@
     <t>0.243 (N = 93)</t>
   </si>
   <si>
-    <t>0.406 (N = 93)</t>
+    <t>0.894 (N = 58)</t>
   </si>
   <si>
     <t>0.49 (N = 58)</t>
@@ -1544,7 +1541,7 @@
     <t>0.921 (N = 58)</t>
   </si>
   <si>
-    <t>0.688 (N = 58)</t>
+    <t>0.515 (N = 134)</t>
   </si>
   <si>
     <t>0.922 (N = 134)</t>
@@ -1556,7 +1553,7 @@
     <t>0.968 (N = 134)</t>
   </si>
   <si>
-    <t>0.992 (N = 134)</t>
+    <t>0.367 (N = 98)</t>
   </si>
   <si>
     <t>0.688 (N = 98)</t>
@@ -1568,7 +1565,7 @@
     <t>0.718 (N = 98)</t>
   </si>
   <si>
-    <t>0.662 (N = 98)</t>
+    <t>0.059 (N = 64)</t>
   </si>
   <si>
     <t>0.116 (N = 64)</t>
@@ -1580,7 +1577,7 @@
     <t>0.089 (N = 64)</t>
   </si>
   <si>
-    <t>0.172 (N = 64)</t>
+    <t>0.13 (N = 139)</t>
   </si>
   <si>
     <t>0.378 (N = 139)</t>
@@ -1592,7 +1589,7 @@
     <t>0.125 (N = 139)</t>
   </si>
   <si>
-    <t>0.165 (N = 139)</t>
+    <t>0.018 (N = 102)</t>
   </si>
   <si>
     <t>0.553 (N = 102)</t>
@@ -1604,7 +1601,7 @@
     <t>0.173 (N = 102)</t>
   </si>
   <si>
-    <t>0.468 (N = 102)</t>
+    <t>0.091 (N = 62)</t>
   </si>
   <si>
     <t>0.522 (N = 62)</t>
@@ -1616,7 +1613,7 @@
     <t>0.549 (N = 62)</t>
   </si>
   <si>
-    <t>0.801 (N = 62)</t>
+    <t>0.374 (N = 141)</t>
   </si>
   <si>
     <t>0.928 (N = 141)</t>
@@ -1628,7 +1625,7 @@
     <t>0.446 (N = 141)</t>
   </si>
   <si>
-    <t>0.184 (N = 141)</t>
+    <t>0.359 (N = 101)</t>
   </si>
   <si>
     <t>0.779 (N = 101)</t>
@@ -1640,7 +1637,7 @@
     <t>0.528 (N = 101)</t>
   </si>
   <si>
-    <t>0.197 (N = 101)</t>
+    <t>0.828 (N = 66)</t>
   </si>
   <si>
     <t>0.932 (N = 66)</t>
@@ -1652,7 +1649,7 @@
     <t>0.843 (N = 66)</t>
   </si>
   <si>
-    <t>0.75 (N = 66)</t>
+    <t>0.613 (N = 140)</t>
   </si>
   <si>
     <t>0.564 (N = 140)</t>
@@ -1664,7 +1661,7 @@
     <t>0.286 (N = 140)</t>
   </si>
   <si>
-    <t>0.206 (N = 140)</t>
+    <t>0.508 (N = 95)</t>
   </si>
   <si>
     <t>0.266 (N = 95)</t>
@@ -1676,9 +1673,6 @@
     <t>0.414 (N = 95)</t>
   </si>
   <si>
-    <t>0.318 (N = 95)</t>
-  </si>
-  <si>
     <t>0.8 (N = 62)</t>
   </si>
   <si>
@@ -1688,7 +1682,7 @@
     <t>0.585 (N = 62)</t>
   </si>
   <si>
-    <t>0.384 (N = 62)</t>
+    <t>0.48 (N = 158)</t>
   </si>
   <si>
     <t>0.762 (N = 158)</t>
@@ -1700,7 +1694,7 @@
     <t>0.56 (N = 158)</t>
   </si>
   <si>
-    <t>0.707 (N = 158)</t>
+    <t>0.981 (N = 115)</t>
   </si>
   <si>
     <t>0.825 (N = 115)</t>
@@ -1712,7 +1706,7 @@
     <t>0.439 (N = 115)</t>
   </si>
   <si>
-    <t>0.384 (N = 115)</t>
+    <t>0.639 (N = 76)</t>
   </si>
   <si>
     <t>0.129 (N = 76)</t>
@@ -1724,7 +1718,7 @@
     <t>0.086 (N = 76)</t>
   </si>
   <si>
-    <t>0.081 (N = 76)</t>
+    <t>0.559 (N = 171)</t>
   </si>
   <si>
     <t>0.611 (N = 171)</t>
@@ -1736,7 +1730,7 @@
     <t>0.656 (N = 171)</t>
   </si>
   <si>
-    <t>0.661 (N = 171)</t>
+    <t>0.542 (N = 124)</t>
   </si>
   <si>
     <t>0.673 (N = 124)</t>
@@ -1748,7 +1742,7 @@
     <t>0.11 (N = 124)</t>
   </si>
   <si>
-    <t>0.12 (N = 124)</t>
+    <t>0.626 (N = 88)</t>
   </si>
   <si>
     <t>0.594 (N = 88)</t>
@@ -1760,7 +1754,7 @@
     <t>0.031 (N = 88)</t>
   </si>
   <si>
-    <t>0.042 (N = 88)</t>
+    <t>0.266 (N = 180)</t>
   </si>
   <si>
     <t>0.055 (N = 180)</t>
@@ -1772,7 +1766,7 @@
     <t>0.018 (N = 180)</t>
   </si>
   <si>
-    <t>0.073 (N = 180)</t>
+    <t>0.373 (N = 139)</t>
   </si>
   <si>
     <t>0.066 (N = 139)</t>
@@ -1784,7 +1778,7 @@
     <t>0.005 (N = 139)</t>
   </si>
   <si>
-    <t>0.015 (N = 139)</t>
+    <t>0.053 (N = 95)</t>
   </si>
   <si>
     <t>0.071 (N = 95)</t>
@@ -1796,7 +1790,7 @@
     <t>0.128 (N = 95)</t>
   </si>
   <si>
-    <t>0.041 (N = 95)</t>
+    <t>0.522 (N = 177)</t>
   </si>
   <si>
     <t>0.286 (N = 177)</t>
@@ -1808,7 +1802,7 @@
     <t>0.067 (N = 177)</t>
   </si>
   <si>
-    <t>0.031 (N = 177)</t>
+    <t>0.296 (N = 136)</t>
   </si>
   <si>
     <t>0.106 (N = 136)</t>
@@ -1820,7 +1814,7 @@
     <t>0.046 (N = 136)</t>
   </si>
   <si>
-    <t>0.006 (N = 136)</t>
+    <t>0.304 (N = 102)</t>
   </si>
   <si>
     <t>0.038 (N = 102)</t>
@@ -1832,7 +1826,7 @@
     <t>0.225 (N = 102)</t>
   </si>
   <si>
-    <t>0.061 (N = 102)</t>
+    <t>0.491 (N = 89)</t>
   </si>
   <si>
     <t>0.558 (N = 89)</t>
@@ -1844,7 +1838,7 @@
     <t>0.687 (N = 89)</t>
   </si>
   <si>
-    <t>0.56 (N = 89)</t>
+    <t>0.619 (N = 58)</t>
   </si>
   <si>
     <t>0.414 (N = 58)</t>
@@ -1856,7 +1850,7 @@
     <t>0.273 (N = 58)</t>
   </si>
   <si>
-    <t>0.263 (N = 58)</t>
+    <t>0.212 (N = 40)</t>
   </si>
   <si>
     <t>0.316 (N = 40)</t>
@@ -1868,7 +1862,7 @@
     <t>0.16 (N = 40)</t>
   </si>
   <si>
-    <t>0.259 (N = 40)</t>
+    <t>0.222 (N = 99)</t>
   </si>
   <si>
     <t>0.516 (N = 99)</t>
@@ -1880,7 +1874,7 @@
     <t>0.687 (N = 99)</t>
   </si>
   <si>
-    <t>0.808 (N = 99)</t>
+    <t>0.298 (N = 71)</t>
   </si>
   <si>
     <t>0.841 (N = 71)</t>
@@ -1892,7 +1886,7 @@
     <t>0.941 (N = 71)</t>
   </si>
   <si>
-    <t>0.814 (N = 71)</t>
+    <t>0.824 (N = 48)</t>
   </si>
   <si>
     <t>0.751 (N = 48)</t>
@@ -1904,7 +1898,7 @@
     <t>0.839 (N = 48)</t>
   </si>
   <si>
-    <t>0.428 (N = 48)</t>
+    <t>0.598 (N = 105)</t>
   </si>
   <si>
     <t>0.906 (N = 105)</t>
@@ -1916,7 +1910,7 @@
     <t>0.714 (N = 105)</t>
   </si>
   <si>
-    <t>0.534 (N = 105)</t>
+    <t>0.445 (N = 75)</t>
   </si>
   <si>
     <t>0.654 (N = 75)</t>
@@ -1928,7 +1922,7 @@
     <t>0.474 (N = 75)</t>
   </si>
   <si>
-    <t>0.12 (N = 75)</t>
+    <t>0.87 (N = 58)</t>
   </si>
   <si>
     <t>0.868 (N = 58)</t>
@@ -1940,6 +1934,9 @@
     <t>0.92 (N = 58)</t>
   </si>
   <si>
+    <t>0.746 (N = 106)</t>
+  </si>
+  <si>
     <t>0.924 (N = 106)</t>
   </si>
   <si>
@@ -1949,7 +1946,7 @@
     <t>0.684 (N = 106)</t>
   </si>
   <si>
-    <t>0.689 (N = 106)</t>
+    <t>0.641 (N = 83)</t>
   </si>
   <si>
     <t>0.939 (N = 83)</t>
@@ -1961,7 +1958,7 @@
     <t>0.316 (N = 83)</t>
   </si>
   <si>
-    <t>0.224 (N = 83)</t>
+    <t>0.808 (N = 58)</t>
   </si>
   <si>
     <t>0.77 (N = 58)</t>
@@ -1973,7 +1970,7 @@
     <t>0.172 (N = 58)</t>
   </si>
   <si>
-    <t>0.507 (N = 58)</t>
+    <t>0.706 (N = 109)</t>
   </si>
   <si>
     <t>0.837 (N = 109)</t>
@@ -1985,7 +1982,7 @@
     <t>0.339 (N = 109)</t>
   </si>
   <si>
-    <t>0.47 (N = 109)</t>
+    <t>0.786 (N = 83)</t>
   </si>
   <si>
     <t>0.623 (N = 83)</t>
@@ -1997,7 +1994,7 @@
     <t>0.554 (N = 83)</t>
   </si>
   <si>
-    <t>0.959 (N = 83)</t>
+    <t>0.719 (N = 58)</t>
   </si>
   <si>
     <t>0.876 (N = 58)</t>
@@ -2009,184 +2006,184 @@
     <t>0.31 (N = 58)</t>
   </si>
   <si>
-    <t>0.902 (N = 58)</t>
-  </si>
-  <si>
-    <t>0.398 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.112 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.276 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.184 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.165 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.355 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.532 (N = 165)</t>
-  </si>
-  <si>
-    <t>0.01 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.021 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.016 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.141 (N = 103)</t>
-  </si>
-  <si>
-    <t>0.848 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.553 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.388 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.586 (N = 272)</t>
-  </si>
-  <si>
-    <t>0.821 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.413 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.14 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.501 (N = 200)</t>
-  </si>
-  <si>
-    <t>0.459 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.472 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.352 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.205 (N = 143)</t>
-  </si>
-  <si>
-    <t>0.613 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.195 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.395 (N = 280)</t>
-  </si>
-  <si>
-    <t>0.453 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.176 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.237 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.533 (N = 217)</t>
-  </si>
-  <si>
-    <t>0.147 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.491 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.339 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.36 (N = 156)</t>
-  </si>
-  <si>
-    <t>0.867 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.549 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.916 (N = 279)</t>
-  </si>
-  <si>
-    <t>0.362 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.475 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.378 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.565 (N = 220)</t>
-  </si>
-  <si>
-    <t>0.201 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.502 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.514 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.674 (N = 157)</t>
-  </si>
-  <si>
-    <t>0.285 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.135 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.253 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.334 (N = 288)</t>
-  </si>
-  <si>
-    <t>0.961 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.879 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.892 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.814 (N = 225)</t>
-  </si>
-  <si>
-    <t>0.104 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.046 (N = 159)</t>
-  </si>
-  <si>
-    <t>0.307 (N = 159)</t>
+    <t>0.461 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.338 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.088 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.188 (N = 232)</t>
+  </si>
+  <si>
+    <t>0.439 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.138 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.164 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.399 (N = 164)</t>
+  </si>
+  <si>
+    <t>0.329 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.004 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.017 (N = 102)</t>
+  </si>
+  <si>
+    <t>0.82 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.847 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.536 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.456 (N = 270)</t>
+  </si>
+  <si>
+    <t>0.684 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.812 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.441 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.179 (N = 198)</t>
+  </si>
+  <si>
+    <t>0.186 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.45 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.491 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.366 (N = 142)</t>
+  </si>
+  <si>
+    <t>0.619 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.656 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.244 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.266 (N = 278)</t>
+  </si>
+  <si>
+    <t>0.076 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.459 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.195 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.245 (N = 216)</t>
+  </si>
+  <si>
+    <t>0.068 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.105 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.455 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.33 (N = 155)</t>
+  </si>
+  <si>
+    <t>0.512 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.894 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.647 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.704 (N = 277)</t>
+  </si>
+  <si>
+    <t>0.033 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.41 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.59 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.502 (N = 218)</t>
+  </si>
+  <si>
+    <t>0.144 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.185 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.518 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.529 (N = 156)</t>
+  </si>
+  <si>
+    <t>0.1 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.303 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.155 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.26 (N = 286)</t>
+  </si>
+  <si>
+    <t>0.691 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.976 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.919 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.914 (N = 223)</t>
+  </si>
+  <si>
+    <t>0.014 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.133 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.079 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.396 (N = 157)</t>
+  </si>
+  <si>
+    <t>0.987 (N = 134)</t>
   </si>
   <si>
     <t>0.837 (N = 134)</t>
@@ -2195,7 +2192,7 @@
     <t>0.472 (N = 134)</t>
   </si>
   <si>
-    <t>0.706 (N = 134)</t>
+    <t>0.973 (N = 88)</t>
   </si>
   <si>
     <t>0.526 (N = 88)</t>
@@ -2207,7 +2204,7 @@
     <t>0.73 (N = 88)</t>
   </si>
   <si>
-    <t>0.909 (N = 88)</t>
+    <t>0.679 (N = 56)</t>
   </si>
   <si>
     <t>0.345 (N = 56)</t>
@@ -2219,7 +2216,7 @@
     <t>0.583 (N = 56)</t>
   </si>
   <si>
-    <t>0.488 (N = 56)</t>
+    <t>0.907 (N = 151)</t>
   </si>
   <si>
     <t>0.179 (N = 151)</t>
@@ -2231,6 +2228,9 @@
     <t>0.121 (N = 151)</t>
   </si>
   <si>
+    <t>0.798 (N = 112)</t>
+  </si>
+  <si>
     <t>0.547 (N = 112)</t>
   </si>
   <si>
@@ -2240,7 +2240,7 @@
     <t>0.729 (N = 112)</t>
   </si>
   <si>
-    <t>0.852 (N = 112)</t>
+    <t>0.908 (N = 81)</t>
   </si>
   <si>
     <t>0.582 (N = 81)</t>
@@ -2252,7 +2252,7 @@
     <t>0.545 (N = 81)</t>
   </si>
   <si>
-    <t>0.761 (N = 81)</t>
+    <t>0.621 (N = 159)</t>
   </si>
   <si>
     <t>0.182 (N = 159)</t>
@@ -2264,7 +2264,7 @@
     <t>0.396 (N = 159)</t>
   </si>
   <si>
-    <t>0.278 (N = 159)</t>
+    <t>0.715 (N = 118)</t>
   </si>
   <si>
     <t>0.057 (N = 118)</t>
@@ -2276,7 +2276,7 @@
     <t>0.22 (N = 118)</t>
   </si>
   <si>
-    <t>0.555 (N = 118)</t>
+    <t>0.654 (N = 81)</t>
   </si>
   <si>
     <t>0.444 (N = 81)</t>
@@ -2288,7 +2288,7 @@
     <t>0.238 (N = 81)</t>
   </si>
   <si>
-    <t>0.405 (N = 81)</t>
+    <t>0.509 (N = 165)</t>
   </si>
   <si>
     <t>0.092 (N = 165)</t>
@@ -2300,7 +2300,7 @@
     <t>0.405 (N = 165)</t>
   </si>
   <si>
-    <t>0.578 (N = 165)</t>
+    <t>0.371 (N = 122)</t>
   </si>
   <si>
     <t>0.075 (N = 122)</t>
@@ -2312,7 +2312,7 @@
     <t>0.228 (N = 122)</t>
   </si>
   <si>
-    <t>0.413 (N = 122)</t>
+    <t>0.897 (N = 80)</t>
   </si>
   <si>
     <t>0.732 (N = 80)</t>
@@ -2324,7 +2324,7 @@
     <t>0.91 (N = 80)</t>
   </si>
   <si>
-    <t>0.953 (N = 80)</t>
+    <t>0.523 (N = 169)</t>
   </si>
   <si>
     <t>0.079 (N = 169)</t>
@@ -2336,7 +2336,7 @@
     <t>0.411 (N = 169)</t>
   </si>
   <si>
-    <t>0.354 (N = 169)</t>
+    <t>0.501 (N = 124)</t>
   </si>
   <si>
     <t>0.154 (N = 124)</t>
@@ -2348,7 +2348,7 @@
     <t>0.058 (N = 124)</t>
   </si>
   <si>
-    <t>0.457 (N = 124)</t>
+    <t>0.923 (N = 89)</t>
   </si>
   <si>
     <t>0.901 (N = 89)</t>
@@ -2360,184 +2360,184 @@
     <t>0.778 (N = 89)</t>
   </si>
   <si>
-    <t>0.755 (N = 89)</t>
-  </si>
-  <si>
-    <t>0.43 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.135 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.457 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.477 (N = 706)</t>
-  </si>
-  <si>
-    <t>0.162 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.081 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.401 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.438 (N = 481)</t>
-  </si>
-  <si>
-    <t>0.156 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.08 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.242 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.287 (N = 312)</t>
-  </si>
-  <si>
-    <t>0.781 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.16 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.282 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.387 (N = 816)</t>
-  </si>
-  <si>
-    <t>0.65 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.302 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.422 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.47 (N = 591)</t>
-  </si>
-  <si>
-    <t>0.458 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.414 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.478 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.119 (N = 406)</t>
-  </si>
-  <si>
-    <t>0.789 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.46 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.622 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.664 (N = 849)</t>
-  </si>
-  <si>
-    <t>0.376 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.072 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.107 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.122 (N = 632)</t>
-  </si>
-  <si>
-    <t>0.322 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.142 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.06 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.018 (N = 447)</t>
-  </si>
-  <si>
-    <t>0.288 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.015 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.069 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.254 (N = 869)</t>
-  </si>
-  <si>
-    <t>0.191 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.008 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.048 (N = 666)</t>
-  </si>
-  <si>
-    <t>0.32 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.247 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.323 (N = 452)</t>
-  </si>
-  <si>
-    <t>0.415 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.045 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.138 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.063 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.685 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.129 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.248 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.27 (N = 669)</t>
-  </si>
-  <si>
-    <t>0.506 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.114 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.577 (N = 474)</t>
-  </si>
-  <si>
-    <t>0.707 (N = 474)</t>
+    <t>0.589 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.383 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.115 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.475 (N = 704)</t>
+  </si>
+  <si>
+    <t>0.657 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.136 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.079 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.42 (N = 480)</t>
+  </si>
+  <si>
+    <t>0.562 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.123 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.073 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.248 (N = 311)</t>
+  </si>
+  <si>
+    <t>0.761 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.776 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.142 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.3 (N = 814)</t>
+  </si>
+  <si>
+    <t>0.645 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.64 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.303 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.45 (N = 589)</t>
+  </si>
+  <si>
+    <t>0.867 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.452 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.429 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.491 (N = 405)</t>
+  </si>
+  <si>
+    <t>0.764 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.803 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.492 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.658 (N = 847)</t>
+  </si>
+  <si>
+    <t>0.296 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.38 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.078 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.11 (N = 631)</t>
+  </si>
+  <si>
+    <t>0.263 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.279 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.13 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.059 (N = 446)</t>
+  </si>
+  <si>
+    <t>0.337 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.301 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.018 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.076 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.048 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.207 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.01 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.011 (N = 664)</t>
+  </si>
+  <si>
+    <t>0.171 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.307 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.215 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.257 (N = 451)</t>
+  </si>
+  <si>
+    <t>0.371 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.428 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.05 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.141 (N = 882)</t>
+  </si>
+  <si>
+    <t>0.689 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.712 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.148 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.265 (N = 667)</t>
+  </si>
+  <si>
+    <t>0.392 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.544 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.15 (N = 472)</t>
+  </si>
+  <si>
+    <t>0.626 (N = 472)</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2955,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>187</v>
@@ -3749,7 +3749,7 @@
         <v>341</v>
       </c>
       <c r="G37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3772,7 +3772,7 @@
         <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3795,7 +3795,7 @@
         <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3818,7 +3818,7 @@
         <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3841,7 +3841,7 @@
         <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3864,7 +3864,7 @@
         <v>346</v>
       </c>
       <c r="G42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3887,7 +3887,7 @@
         <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3910,7 +3910,7 @@
         <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3933,7 +3933,7 @@
         <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3956,7 +3956,7 @@
         <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3979,7 +3979,7 @@
         <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4002,7 +4002,7 @@
         <v>352</v>
       </c>
       <c r="G48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4025,7 +4025,7 @@
         <v>353</v>
       </c>
       <c r="G49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4048,7 +4048,7 @@
         <v>354</v>
       </c>
       <c r="G50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4071,7 +4071,7 @@
         <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4094,7 +4094,7 @@
         <v>356</v>
       </c>
       <c r="G52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4117,7 +4117,7 @@
         <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4140,7 +4140,7 @@
         <v>358</v>
       </c>
       <c r="G54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4163,7 +4163,7 @@
         <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4186,7 +4186,7 @@
         <v>360</v>
       </c>
       <c r="G56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4209,7 +4209,7 @@
         <v>361</v>
       </c>
       <c r="G57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4232,7 +4232,7 @@
         <v>362</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4255,7 +4255,7 @@
         <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4278,7 +4278,7 @@
         <v>364</v>
       </c>
       <c r="G60" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4301,7 +4301,7 @@
         <v>365</v>
       </c>
       <c r="G61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4342,988 +4342,988 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>723</v>
       </c>
       <c r="G3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F4" t="s">
-        <v>725</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E13" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G15" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E18" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E19" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E20" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D22" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E22" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D23" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D24" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E24" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D26" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E26" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D27" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E27" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E29" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C31" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D31" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D32" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F32" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C33" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D34" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C35" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C36" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D36" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B37" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C37" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>638</v>
       </c>
       <c r="E37" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B38" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C38" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D39" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E39" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G39" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C40" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E40" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B41" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C41" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E41" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B42" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C42" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D42" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E42" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C43" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D43" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E43" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C44" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D44" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E44" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F44" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G44" t="s">
         <v>823</v>
@@ -5331,22 +5331,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C45" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E45" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G45" t="s">
         <v>824</v>
@@ -5354,22 +5354,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C46" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D46" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E46" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F46" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G46" t="s">
         <v>825</v>
@@ -5377,22 +5377,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C47" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D47" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E47" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G47" t="s">
         <v>826</v>
@@ -5400,22 +5400,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C48" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E48" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G48" t="s">
         <v>827</v>
@@ -5423,22 +5423,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C49" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D49" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E49" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G49" t="s">
         <v>828</v>
@@ -5446,22 +5446,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C50" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D50" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E50" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G50" t="s">
         <v>829</v>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C51" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D51" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E51" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G51" t="s">
         <v>830</v>
@@ -5492,22 +5492,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C52" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E52" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G52" t="s">
         <v>831</v>
@@ -5515,22 +5515,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C53" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D53" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E53" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F53" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G53" t="s">
         <v>832</v>
@@ -5538,22 +5538,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C54" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D54" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E54" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G54" t="s">
         <v>833</v>
@@ -5561,22 +5561,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C55" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D55" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E55" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G55" t="s">
         <v>834</v>
@@ -5584,22 +5584,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C56" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D56" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E56" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F56" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G56" t="s">
         <v>835</v>
@@ -5607,22 +5607,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C57" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D57" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E57" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G57" t="s">
         <v>836</v>
@@ -5630,22 +5630,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C58" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D58" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E58" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F58" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G58" t="s">
         <v>837</v>
@@ -5653,22 +5653,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C59" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D59" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E59" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F59" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G59" t="s">
         <v>838</v>
@@ -5676,22 +5676,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C60" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D60" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E60" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F60" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G60" t="s">
         <v>839</v>
@@ -5699,22 +5699,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C61" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>721</v>
       </c>
       <c r="F61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G61" t="s">
         <v>840</v>
